--- a/diploma/exel_result/face_recognition.xlsx
+++ b/diploma/exel_result/face_recognition.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\softlab-nsk\diploma\exel_result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620" tabRatio="814" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620" tabRatio="814"/>
   </bookViews>
   <sheets>
     <sheet name="FaceSDK с углом черно-белое" sheetId="8" r:id="rId1"/>
@@ -19,8 +14,8 @@
     <sheet name="Сравнение мной" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +28,7 @@
     <author>Dmitrii</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,28 +43,28 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,40 +80,40 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="O1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="S1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="T1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="U1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
+    <comment ref="V2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -148,49 +143,49 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V3" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V4" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V5" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V6" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V8" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V9" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V3" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A4" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V4" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A5" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V5" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A6" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V6" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A7" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V7" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A8" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V8" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A9" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V9" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -206,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V10" authorId="0" shapeId="0">
+    <comment ref="V10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -222,70 +217,70 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V11" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V12" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V13" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V14" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V15" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A16" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V16" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A17" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V17" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A18" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V18" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A19" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V19" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V20" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A21" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V21" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V11" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V12" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V13" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A14" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V14" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A15" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V15" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A16" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V16" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A17" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V17" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A18" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V18" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A19" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V19" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A20" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V20" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A21" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V21" authorId="0">
       <text/>
     </comment>
   </commentList>
@@ -298,7 +293,7 @@
     <author>Dmitrii</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -313,28 +308,28 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -350,40 +345,40 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="O1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="S1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="T1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="U1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
+    <comment ref="V2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -413,49 +408,49 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V3" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V4" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V5" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V6" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V8" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V9" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V3" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A4" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V4" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A5" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V5" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A6" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V6" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A7" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V7" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A8" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V8" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A9" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V9" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -471,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V10" authorId="0" shapeId="0">
+    <comment ref="V10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -487,70 +482,70 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V11" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V12" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V13" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V14" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V15" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A16" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V16" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A17" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V17" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A18" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V18" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A19" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V19" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V20" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A21" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V21" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V11" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V12" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V13" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A14" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V14" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A15" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V15" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A16" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V16" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A17" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V17" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A18" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V18" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A19" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V19" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A20" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V20" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A21" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V21" authorId="0">
       <text/>
     </comment>
   </commentList>
@@ -563,7 +558,7 @@
     <author>Dmitrii</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -578,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -593,61 +588,61 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="O1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="S1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="T1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="U1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -662,7 +657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
+    <comment ref="V2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -677,49 +672,49 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V3" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V4" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V5" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V6" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V8" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V9" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V3" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A4" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V4" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A5" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V5" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A6" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V6" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A7" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V7" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A8" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V8" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A9" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V9" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -735,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V10" authorId="0" shapeId="0">
+    <comment ref="V10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -751,70 +746,70 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V11" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V12" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V13" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V14" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V15" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A16" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V16" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A17" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V17" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A18" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V18" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A19" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V19" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V20" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A21" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V21" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V11" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V12" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V13" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A14" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V14" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A15" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V15" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A16" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V16" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A17" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V17" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A18" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V18" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A19" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V19" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A20" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V20" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A21" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V21" authorId="0">
       <text/>
     </comment>
   </commentList>
@@ -827,7 +822,7 @@
     <author>Dmitrii</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -842,7 +837,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -857,61 +852,61 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="O1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="S1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="T1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="U1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -926,7 +921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
+    <comment ref="V2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -941,49 +936,49 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V3" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V4" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V5" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V6" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V8" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V9" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V3" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A4" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V4" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A5" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V5" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A6" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V6" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A7" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V7" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A8" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V8" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A9" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V9" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -999,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V10" authorId="0" shapeId="0">
+    <comment ref="V10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1015,70 +1010,70 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V11" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V12" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V13" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V14" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V15" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A16" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V16" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A17" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V17" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A18" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V18" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A19" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V19" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V20" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A21" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V21" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V11" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V12" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V13" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A14" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V14" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A15" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V15" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A16" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V16" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A17" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V17" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A18" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V18" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A19" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V19" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A20" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V20" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A21" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V21" authorId="0">
       <text/>
     </comment>
   </commentList>
@@ -1091,7 +1086,7 @@
     <author>Dmitrii</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1106,7 +1101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1121,61 +1116,61 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="O1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="S1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="T1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="U1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1190,7 +1185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
+    <comment ref="V2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1205,49 +1200,49 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V3" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V4" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V5" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V6" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V8" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V9" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V3" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A4" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V4" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A5" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V5" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A6" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V6" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A7" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V7" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A8" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V8" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A9" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V9" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1263,7 +1258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V10" authorId="0" shapeId="0">
+    <comment ref="V10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1279,70 +1274,70 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V11" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V12" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V13" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V14" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V15" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A16" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V16" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A17" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V17" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A18" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V18" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A19" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V19" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V20" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A21" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="V21" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V11" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V12" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V13" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A14" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V14" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A15" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V15" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A16" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V16" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A17" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V17" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A18" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V18" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A19" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V19" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A20" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V20" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="A21" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="V21" authorId="0">
       <text/>
     </comment>
   </commentList>
@@ -1350,7 +1345,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>примерно равные значения как при сравнении с учетом угла, так и без него (не учитывая очень низкие значения)</t>
   </si>
@@ -1370,8 +1365,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1546,7 +1541,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1581,7 +1576,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1758,26 +1753,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="21" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -1839,7 +1834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1907,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1973,7 +1968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2037,7 +2032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2099,7 +2094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2159,7 +2154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2217,7 +2212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2273,7 +2268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2327,7 +2322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2377,7 +2372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2427,7 +2422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2475,7 +2470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2521,7 +2516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2565,7 +2560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2607,7 +2602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2647,7 +2642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2685,7 +2680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2721,7 +2716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2755,7 +2750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2787,7 +2782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2817,9 +2812,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
+    <row r="23" spans="1:22">
+      <c r="A23" s="2">
+        <v>123</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="5"/>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="8"/>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2829,19 +2850,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="21" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -2903,7 +2924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2971,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3037,7 +3058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3101,7 +3122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3163,7 +3184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3223,7 +3244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3281,7 +3302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3337,7 +3358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3391,7 +3412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3443,7 +3464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3493,7 +3514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3541,7 +3562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3585,7 +3606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3629,7 +3650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3671,7 +3692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3711,7 +3732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3749,7 +3770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3785,7 +3806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3819,7 +3840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3851,7 +3872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3881,7 +3902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
     </row>
@@ -3893,19 +3914,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="21" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -3967,7 +3988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4035,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4100,7 +4121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4162,7 +4183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4221,7 +4242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4277,7 +4298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4330,7 +4351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4380,7 +4401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4427,7 +4448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4471,7 +4492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4512,7 +4533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4550,7 +4571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4585,7 +4606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4617,7 +4638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4646,7 +4667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4672,7 +4693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4695,7 +4716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4715,7 +4736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4732,7 +4753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4746,7 +4767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4757,10 +4778,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" s="2">
         <v>123</v>
       </c>
@@ -4768,24 +4789,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" s="5"/>
       <c r="B24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" s="8"/>
       <c r="B25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -4798,19 +4819,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:U2"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="21" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -4872,7 +4893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4940,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5005,7 +5026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5067,7 +5088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5126,7 +5147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5182,7 +5203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5235,7 +5256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5285,7 +5306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5332,7 +5353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5376,7 +5397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5417,7 +5438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5455,7 +5476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5490,7 +5511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5522,7 +5543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5551,7 +5572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5577,7 +5598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5600,7 +5621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5620,7 +5641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5637,7 +5658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5651,7 +5672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5662,7 +5683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
     </row>
@@ -5674,19 +5695,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="21" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -5748,7 +5769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5816,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5881,7 +5902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5943,7 +5964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6002,7 +6023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6058,7 +6079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6111,7 +6132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6161,7 +6182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6208,7 +6229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6252,7 +6273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6293,7 +6314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6331,7 +6352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6366,7 +6387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6398,7 +6419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6427,7 +6448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6453,7 +6474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6476,7 +6497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6496,7 +6517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6513,7 +6534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6527,7 +6548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>20</v>
       </c>
